--- a/quantileOut.xlsx
+++ b/quantileOut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnf\Documents\April2018\RedSnapperStatemManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="quantileOut" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>FL</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Quantiles</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -847,15 +850,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -874,8 +877,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -894,8 +900,12 @@
       <c r="F2" s="1">
         <v>3.5526585007045099</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f t="shared" ref="G2:G8" si="0">SUM(B2:F2)</f>
+        <v>30.758351331973159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.25</v>
       </c>
@@ -914,8 +924,12 @@
       <c r="F3" s="1">
         <v>5.5989566921332496</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>75.953642078396967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -934,8 +948,12 @@
       <c r="F4" s="1">
         <v>6.87812521426165</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>99.180388308379122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -954,8 +972,12 @@
       <c r="F5" s="1">
         <v>7.8208609026069498</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>123.09813129633926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.97499999999999998</v>
       </c>
@@ -973,6 +995,298 @@
       </c>
       <c r="F6" s="1">
         <v>12.311587321999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>172.44158176241251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B9">
+        <v>16.327021980959199</v>
+      </c>
+      <c r="C9">
+        <v>25.8872995303146</v>
+      </c>
+      <c r="D9">
+        <v>2.5162016507499998</v>
+      </c>
+      <c r="E9">
+        <v>15.1342532599622</v>
+      </c>
+      <c r="F9">
+        <v>4.5404214753967702</v>
+      </c>
+      <c r="G9">
+        <f>SUM(B9:F9)</f>
+        <v>64.405197897382763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.25</v>
+      </c>
+      <c r="B10">
+        <v>22.665978852599899</v>
+      </c>
+      <c r="C10">
+        <v>31.004250497499999</v>
+      </c>
+      <c r="D10">
+        <v>5.0593027146203404</v>
+      </c>
+      <c r="E10">
+        <v>21.632252068040799</v>
+      </c>
+      <c r="F10">
+        <v>6.0326028160557703</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G13" si="1">SUM(B10:F10)</f>
+        <v>86.394386948816816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>26.074042244784302</v>
+      </c>
+      <c r="C11">
+        <v>33.8310261283074</v>
+      </c>
+      <c r="D11">
+        <v>6.6118883549999996</v>
+      </c>
+      <c r="E11">
+        <v>25.188843233739899</v>
+      </c>
+      <c r="F11">
+        <v>7.0735916757073598</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>98.779391637538964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.75</v>
+      </c>
+      <c r="B12">
+        <v>29.5895483539785</v>
+      </c>
+      <c r="C12">
+        <v>36.626966111831102</v>
+      </c>
+      <c r="D12">
+        <v>8.4284227346074907</v>
+      </c>
+      <c r="E12">
+        <v>28.797849711780898</v>
+      </c>
+      <c r="F12">
+        <v>9.8765266217593801</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>113.31931353395738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B13">
+        <v>35.935027715253398</v>
+      </c>
+      <c r="C13">
+        <v>41.928460188442799</v>
+      </c>
+      <c r="D13">
+        <v>11.677590985279201</v>
+      </c>
+      <c r="E13">
+        <v>36.472458865036401</v>
+      </c>
+      <c r="F13">
+        <v>12.4189819345</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>138.4325196885118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B2-B9</f>
+        <v>-12.385660820959199</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:F16" si="2">C2-C9</f>
+        <v>-8.7991747051746998</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6286528300366139</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.84559523454684</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.98776297469226026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.25</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:F20" si="3">B3-B10</f>
+        <v>-6.3139273958702979</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.461276117748401</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8734845003346305</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.2809629680407983</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.43364612392252067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.530392966528197</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6114838563068972</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95240139373929011</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.4978150842884972</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.19546646144570978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1597504344321976</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5583240815021995</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2460550931703089</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.1296461275703997</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0556657191524303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>21.1085213703007</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
+        <v>6.453995869504304</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="3"/>
+        <v>9.5977170850395996</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.043777638443899</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.10739461250000026</v>
       </c>
     </row>
   </sheetData>

--- a/quantileOut.xlsx
+++ b/quantileOut.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>FL</t>
   </si>
@@ -41,12 +41,59 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>Difference between two approaches (i.e., A-B)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Simimulation based approach:  Ten years were randomly selected and the proportion of landings was calculated for each Gulf state.  Samples were drawn at random, without replacement independence of observations was assumed (ableit incorrectly).  The years selected were likely non-consecutive.  2010 landings  data were omitteed from all calculations.  This procedure was repeated (n=1000) and the quantiles were calculated for each state.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update of previous analysis.  All combinations of time series (5 + years) were considered.  Result is the proportion of landings private angler red snapper landings.  Range of data considered was 1986:2016, 2010 was omitted from all time series.  </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +224,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,11 +577,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -850,446 +910,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.94136116</v>
-      </c>
-      <c r="C2" s="1">
-        <v>17.0881248251399</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.88754882071338603</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.2886580254153603</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.5526585007045099</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G8" si="0">SUM(B2:F2)</f>
-        <v>30.758351331973159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16.352051456729601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35.4655266152484</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.1858182142857099</v>
-      </c>
-      <c r="E3" s="1">
-        <v>15.351289100000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5.5989566921332496</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>75.953642078396967</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B4" s="1">
-        <v>27.604435211312499</v>
+        <v>5.4550809659999997</v>
       </c>
       <c r="C4" s="1">
-        <v>38.442509984614297</v>
+        <v>27.924003710000001</v>
       </c>
       <c r="D4" s="1">
-        <v>7.5642897487392897</v>
+        <v>1.887152508</v>
       </c>
       <c r="E4" s="1">
-        <v>18.691028149451402</v>
+        <v>9.5898521379999995</v>
       </c>
       <c r="F4" s="1">
-        <v>6.87812521426165</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>99.180388308379122</v>
+        <v>4.5465877389999996</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G8" si="0">SUM(B4:F4)</f>
+        <v>49.402677060999991</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="B5" s="1">
-        <v>37.749298788410698</v>
+        <v>17.35829172</v>
       </c>
       <c r="C5" s="1">
-        <v>42.185290193333302</v>
+        <v>35.863223380000001</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6744778277778</v>
+        <v>3.511624189</v>
       </c>
       <c r="E5" s="1">
-        <v>23.668203584210499</v>
+        <v>15.775745840000001</v>
       </c>
       <c r="F5" s="1">
-        <v>7.8208609026069498</v>
-      </c>
-      <c r="G5">
+        <v>5.945580917</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>123.09813129633926</v>
+        <v>78.454466046000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27.447406059999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38.208302240000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.9972361210000003</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18.644818709999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.059821125</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>99.357584255999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.125793340000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40.978820229999997</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11.324979300000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>22.736014730000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.8117665839999999</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>119.97737418399998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>0.97499999999999998</v>
       </c>
-      <c r="B6" s="1">
-        <v>57.043549085554098</v>
-      </c>
-      <c r="C6" s="1">
-        <v>48.382456057947103</v>
-      </c>
-      <c r="D6" s="1">
-        <v>21.2753080703188</v>
-      </c>
-      <c r="E6" s="1">
-        <v>33.428681226592502</v>
-      </c>
-      <c r="F6" s="1">
-        <v>12.311587321999999</v>
-      </c>
-      <c r="G6">
+      <c r="B8" s="1">
+        <v>49.882964459999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44.778213690000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.366739890000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.133081950000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10.085431549999999</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>172.44158176241251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>152.24643154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B9">
+      <c r="B14" s="1">
         <v>16.327021980959199</v>
       </c>
-      <c r="C9">
+      <c r="C14" s="1">
         <v>25.8872995303146</v>
       </c>
-      <c r="D9">
+      <c r="D14" s="1">
         <v>2.5162016507499998</v>
       </c>
-      <c r="E9">
+      <c r="E14" s="1">
         <v>15.1342532599622</v>
       </c>
-      <c r="F9">
+      <c r="F14" s="1">
         <v>4.5404214753967702</v>
       </c>
-      <c r="G9">
-        <f>SUM(B9:F9)</f>
+      <c r="G14" s="1">
+        <f>SUM(B14:F14)</f>
         <v>64.405197897382763</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>0.25</v>
       </c>
-      <c r="B10">
+      <c r="B15" s="1">
         <v>22.665978852599899</v>
       </c>
-      <c r="C10">
+      <c r="C15" s="1">
         <v>31.004250497499999</v>
       </c>
-      <c r="D10">
+      <c r="D15" s="1">
         <v>5.0593027146203404</v>
       </c>
-      <c r="E10">
+      <c r="E15" s="1">
         <v>21.632252068040799</v>
       </c>
-      <c r="F10">
+      <c r="F15" s="1">
         <v>6.0326028160557703</v>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G13" si="1">SUM(B10:F10)</f>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G18" si="1">SUM(B15:F15)</f>
         <v>86.394386948816816</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>0.5</v>
       </c>
-      <c r="B11">
+      <c r="B16" s="1">
         <v>26.074042244784302</v>
       </c>
-      <c r="C11">
+      <c r="C16" s="1">
         <v>33.8310261283074</v>
       </c>
-      <c r="D11">
+      <c r="D16" s="1">
         <v>6.6118883549999996</v>
       </c>
-      <c r="E11">
+      <c r="E16" s="1">
         <v>25.188843233739899</v>
       </c>
-      <c r="F11">
+      <c r="F16" s="1">
         <v>7.0735916757073598</v>
       </c>
-      <c r="G11">
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
         <v>98.779391637538964</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>0.75</v>
       </c>
-      <c r="B12">
+      <c r="B17" s="1">
         <v>29.5895483539785</v>
       </c>
-      <c r="C12">
+      <c r="C17" s="1">
         <v>36.626966111831102</v>
       </c>
-      <c r="D12">
+      <c r="D17" s="1">
         <v>8.4284227346074907</v>
       </c>
-      <c r="E12">
+      <c r="E17" s="1">
         <v>28.797849711780898</v>
       </c>
-      <c r="F12">
+      <c r="F17" s="1">
         <v>9.8765266217593801</v>
       </c>
-      <c r="G12">
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
         <v>113.31931353395738</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>0.97499999999999998</v>
       </c>
-      <c r="B13">
+      <c r="B18" s="1">
         <v>35.935027715253398</v>
       </c>
-      <c r="C13">
+      <c r="C18" s="1">
         <v>41.928460188442799</v>
       </c>
-      <c r="D13">
+      <c r="D18" s="1">
         <v>11.677590985279201</v>
       </c>
-      <c r="E13">
+      <c r="E18" s="1">
         <v>36.472458865036401</v>
       </c>
-      <c r="F13">
+      <c r="F18" s="1">
         <v>12.4189819345</v>
       </c>
-      <c r="G13">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>138.4325196885118</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B16" s="1">
-        <f>B2-B9</f>
-        <v>-12.385660820959199</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:F16" si="2">C2-C9</f>
-        <v>-8.7991747051746998</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B22" s="1">
+        <f>B4-B14</f>
+        <v>-10.871941014959198</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:F22" si="2">C4-C14</f>
+        <v>2.0367041796854011</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>-1.6286528300366139</v>
-      </c>
-      <c r="E16" s="1">
+        <v>-0.62904914274999979</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="2"/>
-        <v>-9.84559523454684</v>
-      </c>
-      <c r="F16" s="1">
+        <v>-5.5444011219622009</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
-        <v>-0.98776297469226026</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+        <v>6.1662636032293605E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>0.25</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" ref="B17:F20" si="3">B3-B10</f>
-        <v>-6.3139273958702979</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="3"/>
-        <v>4.461276117748401</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.8734845003346305</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.2809629680407983</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.43364612392252067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B23" s="1">
+        <f>B5-B15</f>
+        <v>-5.3076871325998987</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C5-C15</f>
+        <v>4.8589728825000016</v>
+      </c>
+      <c r="D23" s="1">
+        <f>D5-D15</f>
+        <v>-1.5476785256203405</v>
+      </c>
+      <c r="E23" s="1">
+        <f>E5-E15</f>
+        <v>-5.8565062280407982</v>
+      </c>
+      <c r="F23" s="1">
+        <f>F5-F15</f>
+        <v>-8.7021899055770291E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>0.5</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="3"/>
-        <v>1.530392966528197</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="3"/>
-        <v>4.6114838563068972</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>0.95240139373929011</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="3"/>
-        <v>-6.4978150842884972</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.19546646144570978</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="B24" s="1">
+        <f>B6-B16</f>
+        <v>1.3733638152156971</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C6-C16</f>
+        <v>4.377276111692602</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D6-D16</f>
+        <v>1.3853477660000006</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E6-E16</f>
+        <v>-6.5440245237398997</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F6-F16</f>
+        <v>-1.3770550707359774E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>0.75</v>
       </c>
-      <c r="B19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.1597504344321976</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>5.5583240815021995</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>3.2460550931703089</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.1296461275703997</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.0556657191524303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B25" s="1">
+        <f>B7-B17</f>
+        <v>7.5362449860215008</v>
+      </c>
+      <c r="C25" s="1">
+        <f>C7-C17</f>
+        <v>4.3518541181688946</v>
+      </c>
+      <c r="D25" s="1">
+        <f>D7-D17</f>
+        <v>2.8965565653925101</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E7-E17</f>
+        <v>-6.0618349817808976</v>
+      </c>
+      <c r="F25" s="1">
+        <f>F7-F17</f>
+        <v>-2.0647600377593802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>0.97499999999999998</v>
       </c>
-      <c r="B20" s="1">
-        <f t="shared" si="3"/>
-        <v>21.1085213703007</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="3"/>
-        <v>6.453995869504304</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>9.5977170850395996</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.043777638443899</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>-0.10739461250000026</v>
+      <c r="B26" s="1">
+        <f>B8-B18</f>
+        <v>13.947936744746599</v>
+      </c>
+      <c r="C26" s="1">
+        <f>C8-C18</f>
+        <v>2.8497535015572026</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D8-D18</f>
+        <v>6.6891489047208008</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E8-E18</f>
+        <v>-7.3393769150364001</v>
+      </c>
+      <c r="F26" s="1">
+        <f>F8-F18</f>
+        <v>-2.3335503845000005</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>